--- a/data_output/output for BD stiff 2018-03-05 no coact/all_stiff_output_20180305_1256 SOL.xlsx
+++ b/data_output/output for BD stiff 2018-03-05 no coact/all_stiff_output_20180305_1256 SOL.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\output for BD stiff 2018-03-05 no coact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="14625"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28512" windowHeight="14628"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -188,6 +193,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -236,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +279,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:AK20"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +609,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -714,7 +722,7 @@
         <v>2.9758118667336415</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -827,7 +835,7 @@
         <v>3.450011088094564</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -940,7 +948,7 @@
         <v>5.4737452479203057</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>3.311209363731122</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>106</v>
       </c>
@@ -1166,7 +1174,7 @@
         <v>2.0960905620873604</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>107</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>3.9070261099417278</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>109</v>
       </c>
@@ -1392,7 +1400,7 @@
         <v>4.8729832364633499</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>110</v>
       </c>
@@ -1505,7 +1513,7 @@
         <v>5.2602008383258978</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>112</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>4.2854312733182889</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1731,7 +1739,7 @@
         <v>-0.28472032999698943</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1835,7 +1843,7 @@
         <v>2.1096192274878378</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1948,7 +1956,7 @@
         <v>6.9364547595735981</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -2061,7 +2069,7 @@
         <v>3.5687313047615437</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>1.2162288381017181</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2287,7 +2295,7 @@
         <v>1.1748046298916248</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -2400,7 +2408,7 @@
         <v>3.3639918981934187</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28</v>
       </c>
@@ -2513,7 +2521,7 @@
         <v>0.70248017566046039</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>29</v>
       </c>
@@ -2626,7 +2634,7 @@
         <v>8.0521456929600621</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>31</v>
       </c>
@@ -2737,6 +2745,38 @@
       </c>
       <c r="AK20">
         <v>1.0990248814128261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="J22">
+        <f>MIN(J2:J20)</f>
+        <v>0.94517303345193815</v>
+      </c>
+      <c r="K22">
+        <f>MIN(K2:K20)</f>
+        <v>1700</v>
+      </c>
+      <c r="M22">
+        <f>MIN(M2:M20)</f>
+        <v>1900</v>
+      </c>
+      <c r="P22">
+        <f>P20*0.8</f>
+        <v>1554.885756406894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <f>MAX(J2:J20)</f>
+        <v>0.99914924794400217</v>
+      </c>
+      <c r="K23">
+        <f>MAX(K2:K20)</f>
+        <v>3600</v>
+      </c>
+      <c r="M23">
+        <f>MAX(M2:M20)</f>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +2790,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2762,7 +2802,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
